--- a/GameMaster/RPGTale/Data/Data_Excel/BuildingPanelMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/BuildingPanelMetaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6D3DDE-B5BF-40AB-91FA-6D6D45BC2FB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C00F36-35F7-4C79-8FE9-CC205A6A992D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="1125" windowWidth="20745" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="960" windowWidth="26295" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingPanelData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>BuildID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BuildType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TimeCost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,18 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuildSubType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Food</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100:10,101:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,10 +64,6 @@
   </si>
   <si>
     <t>工厂2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Industry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -528,14 +508,13 @@
     <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -549,76 +528,58 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>100</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="D2" s="2">
         <v>100</v>
       </c>
-      <c r="G2" s="2">
+      <c r="E2" s="2">
         <v>100</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>101</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="D3" s="2">
         <v>100</v>
       </c>
-      <c r="G3" s="2">
+      <c r="E3" s="2">
         <v>100</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5">
         <v>0</v>
       </c>
     </row>

--- a/GameMaster/RPGTale/Data/Data_Excel/BuildingPanelMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/BuildingPanelMetaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C00F36-35F7-4C79-8FE9-CC205A6A992D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06289FE6-62D7-4955-8780-8269B065731B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="960" windowWidth="26295" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9135" yWindow="1875" windowWidth="26295" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingPanelData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>BuildID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,22 @@
   </si>
   <si>
     <t>工厂2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockBuildDesc_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockBuildDesc_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101:10654,102:265</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -508,13 +524,14 @@
     <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -525,19 +542,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -547,20 +567,23 @@
       <c r="C2" s="2">
         <v>100</v>
       </c>
-      <c r="D2" s="2">
-        <v>100</v>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E2" s="2">
         <v>100</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="2">
+        <v>100</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -570,16 +593,19 @@
       <c r="C3" s="2">
         <v>101</v>
       </c>
-      <c r="D3" s="2">
-        <v>100</v>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5">
         <v>0</v>
       </c>
     </row>

--- a/GameMaster/RPGTale/Data/Data_Excel/BuildingPanelMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/BuildingPanelMetaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06289FE6-62D7-4955-8780-8269B065731B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4239475-FB89-48E7-ABBA-47CF0235A0CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9135" yWindow="1875" windowWidth="26295" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7245" yWindow="1455" windowWidth="21030" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingPanelData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>BuildID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,74 +171,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -255,7 +187,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="505B66"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -513,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -609,6 +541,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>100</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
